--- a/1app/scrap2.xlsx
+++ b/1app/scrap2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
   <si>
     <t>Brand</t>
   </si>
@@ -31,427 +31,328 @@
     <t>Off</t>
   </si>
   <si>
-    <t>LOIS CARON</t>
-  </si>
-  <si>
-    <t>hala</t>
-  </si>
-  <si>
-    <t>ANALOGUE</t>
-  </si>
-  <si>
-    <t>U.S. POLO ASSN.</t>
-  </si>
-  <si>
-    <t>Rizzly</t>
-  </si>
-  <si>
-    <t>SPLAZOS</t>
-  </si>
-  <si>
-    <t>Fogg</t>
-  </si>
-  <si>
-    <t>POLO HUNTER</t>
-  </si>
-  <si>
-    <t>SONATA</t>
-  </si>
-  <si>
-    <t>LIMESTONE</t>
-  </si>
-  <si>
-    <t>TIMEWEAR</t>
-  </si>
-  <si>
-    <t>Espoir</t>
-  </si>
-  <si>
-    <t>KNACK</t>
-  </si>
-  <si>
-    <t>AWEX</t>
-  </si>
-  <si>
-    <t>Aurex</t>
-  </si>
-  <si>
-    <t>hrnt</t>
-  </si>
-  <si>
-    <t>just like</t>
-  </si>
-  <si>
-    <t>FOXTER</t>
-  </si>
-  <si>
-    <t>Varni Retail</t>
-  </si>
-  <si>
-    <t>MIKADO</t>
-  </si>
-  <si>
-    <t>FOSSIL</t>
-  </si>
-  <si>
-    <t>Fastrack</t>
-  </si>
-  <si>
-    <t>godmen</t>
-  </si>
-  <si>
-    <t>MAAN INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>Blue Pearl</t>
-  </si>
-  <si>
-    <t>SWADESI STUFF</t>
-  </si>
-  <si>
-    <t>LCS-8188 BLUE DIAL AND SILVER STRAP DAY &amp; DATE FUNCTION...</t>
-  </si>
-  <si>
-    <t>Brand - A Digital Watch With Square LED Shockproof Mult...</t>
-  </si>
-  <si>
-    <t>ANLG-428-BLUE-BLU All Blue Boys Series Analog Watch  - ...</t>
-  </si>
-  <si>
-    <t>USAT0154 Analog Watch  - For Men</t>
-  </si>
-  <si>
-    <t>Gents Exclusive 3 Designer Combo (Casual+PartyWear+Form...</t>
-  </si>
-  <si>
-    <t>Couple Stainless Steel Black Dial With Black King Brace...</t>
-  </si>
-  <si>
-    <t>1170-BL-BR Unique New Day &amp; Date Analog Watch  - For Me...</t>
-  </si>
-  <si>
-    <t>PH-1424 Modern Colletion Combo Analog Watch  - For Men</t>
-  </si>
-  <si>
-    <t>77106SM04 Analog Watch  - For Men</t>
-  </si>
-  <si>
-    <t>LS2811 Day &amp; Date Original Gold Plated Quartz Analog Wa...</t>
-  </si>
-  <si>
-    <t>1283GREENTW Timewear Military Series Analogue Digital B...</t>
-  </si>
-  <si>
-    <t>LCS-96142 Day And Date Functioning High Quality Analog ...</t>
-  </si>
-  <si>
-    <t>TW-02524 Teenager Luxurious Fashion Silicone Black Colo...</t>
-  </si>
-  <si>
-    <t>Abx1017-Gents Green Solitary Camouflage Pattern NEW GEN...</t>
-  </si>
-  <si>
-    <t>SKMEI Sports Multifunctional Dual Time Digital Blue Dia...</t>
-  </si>
-  <si>
-    <t>LCS-4116 CROCO STRAP DAY AND DATE FUNCTIONING Analog Wa...</t>
-  </si>
-  <si>
-    <t>216-Blue Sporty look Designer For Boys And Men Analog W...</t>
-  </si>
-  <si>
-    <t>ES109 Chronograph Pattern Combo of 3 watches Analog Wat...</t>
-  </si>
-  <si>
-    <t>LCS-8190 BLACK DIAL AND SILVER STRAP DAY &amp; DATE FUNCTIO...</t>
-  </si>
-  <si>
-    <t>AX-GR165-BKB Black Ion Plated Round Shaped Black Dial B...</t>
-  </si>
-  <si>
-    <t>HMTG-G9052 Original Gold Plated Day &amp; Date Watch &amp; Gold...</t>
-  </si>
-  <si>
-    <t>Mahadev Dial Analog Black Rubbers Strap With Mahadev Br...</t>
-  </si>
-  <si>
-    <t>LS2917 Mesh Strap All Black Avatar Day and Date Functio...</t>
-  </si>
-  <si>
-    <t>LCS-8208 DAY &amp; DATE FUNCTIONING WATCH Analog Watch  - F...</t>
-  </si>
-  <si>
-    <t>BLACK-1 Trending KOREAN’s Favorite Style Latest Digital...</t>
-  </si>
-  <si>
-    <t>216-Black Sporty look Designer Analog Watch  - For Men</t>
-  </si>
-  <si>
-    <t>1164-BR Brown Day and Date Unique New Analog Watch  - F...</t>
-  </si>
-  <si>
-    <t>2058-BK Printed Black Day and Date Analog Watch  - For ...</t>
-  </si>
-  <si>
-    <t>Combo Of 5 Stylish Attractive Chronograph Pattern Desig...</t>
-  </si>
-  <si>
-    <t>AKS Golden Diamond Women And Rosara Gold Silver Black D...</t>
-  </si>
-  <si>
-    <t>New Arrival Stylish Attractive Ethnic Blue Bracelet Loo...</t>
-  </si>
-  <si>
-    <t>FS4542 Analog Watch  - For Men</t>
-  </si>
-  <si>
-    <t>38024PP25 Minimalists Analog Watch  - For Men</t>
-  </si>
-  <si>
-    <t>Fresh New Arrival Latest Men watch Watches men Ghadi ge...</t>
-  </si>
-  <si>
-    <t>Pack of 2 Queen Dial Magnet Strap Gold and Black Analog...</t>
-  </si>
-  <si>
-    <t>CH2647 Decker Analog Watch  - For Men</t>
-  </si>
-  <si>
-    <t>New Designer King Queen Watch and Bracelet Combo Analog...</t>
-  </si>
-  <si>
-    <t>SQUARE WHITE DIAL ANALOG SILICON STRAP ADDI STYLISH DES...</t>
-  </si>
-  <si>
-    <t>LS2821 Bleed Blue Day and Date Functioning Strap Adult ...</t>
-  </si>
-  <si>
-    <t>LS2971 New Day and Date Functioning Tan Strap Blue Dial...</t>
-  </si>
-  <si>
-    <t>₹314</t>
-  </si>
-  <si>
-    <t>₹353</t>
-  </si>
-  <si>
-    <t>₹265</t>
-  </si>
-  <si>
-    <t>₹2,659</t>
-  </si>
-  <si>
-    <t>₹379</t>
+    <t>REEBOK</t>
+  </si>
+  <si>
+    <t>ASIAN</t>
+  </si>
+  <si>
+    <t>aadi</t>
+  </si>
+  <si>
+    <t>BIRDE</t>
+  </si>
+  <si>
+    <t>BRUTON</t>
+  </si>
+  <si>
+    <t>Chevit</t>
+  </si>
+  <si>
+    <t>Layasa</t>
+  </si>
+  <si>
+    <t>World Wear Footwear</t>
+  </si>
+  <si>
+    <t>MILESWALKER</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>CAMPUS</t>
+  </si>
+  <si>
+    <t>BEEROCK</t>
+  </si>
+  <si>
+    <t>K' Footlance</t>
+  </si>
+  <si>
+    <t>WOODLAND</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Shoes Bank</t>
+  </si>
+  <si>
+    <t>believe</t>
+  </si>
+  <si>
+    <t>LANCER</t>
+  </si>
+  <si>
+    <t>Longwalk</t>
+  </si>
+  <si>
+    <t>Voyager 1.0 Running Shoes For Men</t>
+  </si>
+  <si>
+    <t>wndr-13 sports shoes for men | Latest Stylish Casual sp...</t>
+  </si>
+  <si>
+    <t>Running Shoes For Men</t>
+  </si>
+  <si>
+    <t>Easywalk-08 Running shoes for boys |sports shoes for me...</t>
+  </si>
+  <si>
+    <t>Combo Pack of 2 Sports Shoes Running Shoes For Men</t>
+  </si>
+  <si>
+    <t>Trendy Men Sports Running Running Shoes For Men</t>
+  </si>
+  <si>
+    <t>Combo Pack of 4 Casual Sneakers With Sneakers For Men</t>
+  </si>
+  <si>
+    <t>Cosko Sports Shoes,Running Shoes,Walking Shoes,Training...</t>
+  </si>
+  <si>
+    <t>Loafers For Men</t>
+  </si>
+  <si>
+    <t>Bouncer-01 Running shoes for boys | sports shoes for me...</t>
+  </si>
+  <si>
+    <t>Casuals For Men</t>
+  </si>
+  <si>
+    <t>5011-Latest Collection Stylish Casual Loafer Sneakers S...</t>
+  </si>
+  <si>
+    <t>Rider-01 White Running Shoes for Men I Sport Shoes for ...</t>
+  </si>
+  <si>
+    <t>supr Loafers For Men</t>
+  </si>
+  <si>
+    <t>Stylish Casual Sports Shoe Sneakers For Women Sneakers ...</t>
+  </si>
+  <si>
+    <t>SOCKS Running Shoes For Men</t>
+  </si>
+  <si>
+    <t>NORTH PLUS Running Shoes For Men</t>
+  </si>
+  <si>
+    <t>Oxygen Running Shoes For Men</t>
+  </si>
+  <si>
+    <t>Rafale-01 sports shoes for men | Latest Stylish Casual ...</t>
+  </si>
+  <si>
+    <t>Walking Shoes For Men</t>
+  </si>
+  <si>
+    <t>Mesh,Cricket, Badminton, Volly Ball, Sports Running Sho...</t>
+  </si>
+  <si>
+    <t>MEN's Boots For Men</t>
+  </si>
+  <si>
+    <t>Century-12 Running shoes for boys | sports shoes for me...</t>
+  </si>
+  <si>
+    <t>White Sneaker For Men's/Boy's Sneakers For Men</t>
+  </si>
+  <si>
+    <t>Fit-Man Slip On Sneakers For Men</t>
+  </si>
+  <si>
+    <t>Sneakers for men(black_6) Sneakers For Men</t>
+  </si>
+  <si>
+    <t>INDUS-251 Running Shoes For Men</t>
+  </si>
+  <si>
+    <t>Perfect Stylish Girls Casual Shoes Sneakers For Women</t>
+  </si>
+  <si>
+    <t>₹1,047</t>
+  </si>
+  <si>
+    <t>₹599</t>
+  </si>
+  <si>
+    <t>₹296</t>
+  </si>
+  <si>
+    <t>₹849</t>
+  </si>
+  <si>
+    <t>₹525</t>
+  </si>
+  <si>
+    <t>₹399</t>
+  </si>
+  <si>
+    <t>₹449</t>
+  </si>
+  <si>
+    <t>₹499</t>
+  </si>
+  <si>
+    <t>₹377</t>
+  </si>
+  <si>
+    <t>₹699</t>
+  </si>
+  <si>
+    <t>₹278</t>
+  </si>
+  <si>
+    <t>₹749</t>
+  </si>
+  <si>
+    <t>₹240</t>
+  </si>
+  <si>
+    <t>₹188</t>
+  </si>
+  <si>
+    <t>₹1,599</t>
   </si>
   <si>
     <t>₹299</t>
   </si>
   <si>
-    <t>₹341</t>
+    <t>₹448</t>
+  </si>
+  <si>
+    <t>₹1,529</t>
+  </si>
+  <si>
+    <t>₹524</t>
+  </si>
+  <si>
+    <t>₹899</t>
+  </si>
+  <si>
+    <t>₹630</t>
+  </si>
+  <si>
+    <t>₹349</t>
+  </si>
+  <si>
+    <t>₹2,139</t>
+  </si>
+  <si>
+    <t>₹297</t>
+  </si>
+  <si>
+    <t>₹649</t>
+  </si>
+  <si>
+    <t>₹269</t>
+  </si>
+  <si>
+    <t>₹3,395</t>
+  </si>
+  <si>
+    <t>₹2,299</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>₹999</t>
+  </si>
+  <si>
+    <t>₹998</t>
+  </si>
+  <si>
+    <t>₹1,299</t>
+  </si>
+  <si>
+    <t>₹1,996</t>
+  </si>
+  <si>
+    <t>₹1,999</t>
+  </si>
+  <si>
+    <t>₹1,699</t>
+  </si>
+  <si>
+    <t>₹3,495</t>
   </si>
   <si>
     <t>₹799</t>
   </si>
   <si>
-    <t>₹599</t>
-  </si>
-  <si>
-    <t>₹699</t>
-  </si>
-  <si>
-    <t>₹281</t>
-  </si>
-  <si>
-    <t>₹220</t>
-  </si>
-  <si>
-    <t>₹323</t>
-  </si>
-  <si>
-    <t>₹395</t>
-  </si>
-  <si>
-    <t>₹215</t>
-  </si>
-  <si>
-    <t>₹498</t>
-  </si>
-  <si>
-    <t>₹597</t>
-  </si>
-  <si>
-    <t>₹469</t>
-  </si>
-  <si>
-    <t>₹284</t>
-  </si>
-  <si>
-    <t>₹331</t>
-  </si>
-  <si>
-    <t>₹294</t>
-  </si>
-  <si>
-    <t>₹322</t>
-  </si>
-  <si>
-    <t>₹499</t>
-  </si>
-  <si>
-    <t>₹342</t>
-  </si>
-  <si>
-    <t>₹236</t>
-  </si>
-  <si>
-    <t>₹4,932</t>
-  </si>
-  <si>
-    <t>₹765</t>
-  </si>
-  <si>
-    <t>₹199</t>
-  </si>
-  <si>
-    <t>₹349</t>
-  </si>
-  <si>
-    <t>₹4,272</t>
-  </si>
-  <si>
-    <t>₹399</t>
-  </si>
-  <si>
-    <t>₹312</t>
-  </si>
-  <si>
-    <t>₹1,799</t>
-  </si>
-  <si>
-    <t>₹999</t>
-  </si>
-  <si>
-    <t>₹1,499</t>
-  </si>
-  <si>
-    <t>₹6,999</t>
-  </si>
-  <si>
-    <t>₹899</t>
-  </si>
-  <si>
-    <t>₹1,699</t>
-  </si>
-  <si>
-    <t>₹1,599</t>
-  </si>
-  <si>
-    <t>₹1,249</t>
-  </si>
-  <si>
-    <t>₹4,099</t>
-  </si>
-  <si>
-    <t>₹3,499</t>
-  </si>
-  <si>
-    <t>₹1,795</t>
-  </si>
-  <si>
-    <t>₹1,999</t>
-  </si>
-  <si>
-    <t>₹1,899</t>
-  </si>
-  <si>
-    <t>₹1,299</t>
-  </si>
-  <si>
-    <t>₹2,995</t>
-  </si>
-  <si>
-    <t>₹2,499</t>
-  </si>
-  <si>
-    <t>₹2,299</t>
-  </si>
-  <si>
-    <t>₹2,999</t>
-  </si>
-  <si>
-    <t>₹9,995</t>
-  </si>
-  <si>
-    <t>₹850</t>
-  </si>
-  <si>
-    <t>₹8,995</t>
-  </si>
-  <si>
-    <t>82% off</t>
-  </si>
-  <si>
-    <t>64% off</t>
+    <t>54% off</t>
+  </si>
+  <si>
+    <t>70% off</t>
+  </si>
+  <si>
+    <t>15% off</t>
+  </si>
+  <si>
+    <t>47% off</t>
+  </si>
+  <si>
+    <t>69% off</t>
+  </si>
+  <si>
+    <t>55% off</t>
+  </si>
+  <si>
+    <t>75% off</t>
   </si>
   <si>
     <t>62% off</t>
   </si>
   <si>
-    <t>57% off</t>
-  </si>
-  <si>
-    <t>78% off</t>
+    <t>30% off</t>
+  </si>
+  <si>
+    <t>72% off</t>
+  </si>
+  <si>
+    <t>25% off</t>
+  </si>
+  <si>
+    <t>50% off</t>
+  </si>
+  <si>
+    <t>51% off</t>
+  </si>
+  <si>
+    <t>81% off</t>
+  </si>
+  <si>
+    <t>20% off</t>
+  </si>
+  <si>
+    <t>10% off</t>
   </si>
   <si>
     <t>36% off</t>
   </si>
   <si>
-    <t>85% off</t>
-  </si>
-  <si>
-    <t>80% off</t>
-  </si>
-  <si>
-    <t>84% off</t>
-  </si>
-  <si>
-    <t>55% off</t>
-  </si>
-  <si>
-    <t>67% off</t>
-  </si>
-  <si>
-    <t>83% off</t>
-  </si>
-  <si>
-    <t>76% off</t>
+    <t>65% off</t>
+  </si>
+  <si>
+    <t>38% off</t>
+  </si>
+  <si>
+    <t>77% off</t>
+  </si>
+  <si>
+    <t>35% off</t>
   </si>
   <si>
     <t>79% off</t>
   </si>
   <si>
-    <t>88% off</t>
-  </si>
-  <si>
-    <t>70% off</t>
-  </si>
-  <si>
-    <t>81% off</t>
-  </si>
-  <si>
-    <t>75% off</t>
-  </si>
-  <si>
-    <t>50% off</t>
-  </si>
-  <si>
-    <t>10% off</t>
-  </si>
-  <si>
-    <t>77% off</t>
-  </si>
-  <si>
-    <t>52% off</t>
+    <t>6% off</t>
+  </si>
+  <si>
+    <t>60% off</t>
   </si>
 </sst>
 </file>
@@ -840,16 +741,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -860,16 +761,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -880,16 +781,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -897,19 +798,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -917,19 +818,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -937,19 +838,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -957,19 +858,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -977,19 +878,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -997,19 +898,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1017,19 +918,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1037,19 +938,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1057,19 +958,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1077,19 +978,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1097,19 +998,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1117,19 +1018,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1137,19 +1038,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1157,19 +1058,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1177,19 +1078,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1197,19 +1098,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1217,19 +1118,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1237,19 +1138,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1257,19 +1158,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1277,19 +1178,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1297,19 +1198,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1317,19 +1218,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1337,19 +1238,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1357,19 +1258,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
         <v>92</v>
-      </c>
-      <c r="E28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1377,19 +1278,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1397,19 +1298,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1417,19 +1318,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1437,19 +1338,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s">
         <v>95</v>
-      </c>
-      <c r="E32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1457,19 +1358,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1477,19 +1378,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1497,19 +1398,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1517,19 +1418,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1537,19 +1438,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1557,19 +1458,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1577,19 +1478,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1597,19 +1498,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1617,19 +1518,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
